--- a/Retornos das Estratégias/1T.xlsx
+++ b/Retornos das Estratégias/1T.xlsx
@@ -5,17 +5,40 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Fin\GitHub\Data_Fin_2021.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Fin\GitHub\Data_Fin_2021.1\Retornos das Estratégias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0C130B-7196-4551-927D-E22DA22C4624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC332BA-E8BD-4037-8804-BB6245A34E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$10:$BG$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$11:$BG$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$BG$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$3:$BG$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$4:$BG$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$5:$BG$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$6:$BG$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$7:$BG$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$8:$BG$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$9:$BG$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -265,9 +288,7 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
+      <right/>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -280,7 +301,9 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -295,10 +318,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -641,8 +664,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AQ4" sqref="AQ4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="6" topLeftCell="BB7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="BG6" sqref="BG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -828,178 +854,178 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.56569957014043892</v>
+        <v>1.925782022831561</v>
       </c>
       <c r="C2">
-        <v>3.4969039238648501</v>
+        <v>0.31153674399380149</v>
       </c>
       <c r="D2">
-        <v>1.115240025432535</v>
+        <v>0.92900468317590645</v>
       </c>
       <c r="E2">
-        <v>16.9667578148599</v>
+        <v>6.4208735362855721E-2</v>
       </c>
       <c r="F2">
-        <v>2.98534195186991</v>
+        <v>0.36492103084460159</v>
       </c>
       <c r="G2">
-        <v>2.5336127195229148</v>
+        <v>0.4299844463620856</v>
       </c>
       <c r="H2">
-        <v>0.3067393094467793</v>
+        <v>3.5515958631608799</v>
       </c>
       <c r="I2">
-        <v>1.0734671826583031</v>
+        <v>1.014855488923474</v>
       </c>
       <c r="J2">
-        <v>1.149898576062957</v>
+        <v>0.94740013178375571</v>
       </c>
       <c r="K2">
-        <v>9.8769064324505571</v>
+        <v>0.1102991174362782</v>
       </c>
       <c r="L2">
-        <v>0.42658437777867009</v>
+        <v>2.5538067478533719</v>
       </c>
       <c r="M2">
-        <v>1.79027469959372</v>
+        <v>0.3226154695771225</v>
       </c>
       <c r="N2">
-        <v>0.30873840483879861</v>
+        <v>3.528599116358123</v>
       </c>
       <c r="O2">
-        <v>3.510532576939505</v>
+        <v>0.31032729041066431</v>
       </c>
       <c r="P2">
-        <v>0.22001436139329411</v>
+        <v>4.9515588691620822</v>
       </c>
       <c r="Q2">
-        <v>1.077822832859745</v>
+        <v>1.0107542995814089</v>
       </c>
       <c r="R2">
-        <v>5.2945771741147238</v>
+        <v>0.20576035189857389</v>
       </c>
       <c r="S2">
-        <v>0.96092413101937746</v>
+        <v>1.1337149597276921</v>
       </c>
       <c r="T2">
-        <v>0.89223045025975922</v>
+        <v>1.1681662496647409</v>
       </c>
       <c r="U2">
-        <v>1.070648414744364</v>
+        <v>1.0175273670583229</v>
       </c>
       <c r="V2">
-        <v>2.084699796719359</v>
+        <v>0.52257599114001119</v>
       </c>
       <c r="W2">
-        <v>4.9447757383338686</v>
+        <v>0.22031617208732601</v>
       </c>
       <c r="X2">
-        <v>0.53502433529541316</v>
+        <v>2.03619534782186</v>
       </c>
       <c r="Y2">
-        <v>2.4780533886032159</v>
+        <v>0.53091619618098174</v>
       </c>
       <c r="Z2">
-        <v>0.74937392397343272</v>
+        <v>1.453765640420956</v>
       </c>
       <c r="AA2">
-        <v>6.5690154655766442</v>
+        <v>0.16584129969077049</v>
       </c>
       <c r="AB2">
-        <v>1.960482352186089</v>
+        <v>0.55568674784816008</v>
       </c>
       <c r="AC2">
-        <v>0.32275099767449039</v>
+        <v>3.3754010687791198</v>
       </c>
       <c r="AD2">
-        <v>1.629097013237363</v>
+        <v>0.66872264429182116</v>
       </c>
       <c r="AE2">
-        <v>0.4759979511263645</v>
+        <v>2.2886948566104039</v>
       </c>
       <c r="AF2">
-        <v>0.20400497372074591</v>
+        <v>5.3401348145131804</v>
       </c>
       <c r="AG2">
-        <v>4.1809244780422157</v>
+        <v>0.26056774481851802</v>
       </c>
       <c r="AH2">
-        <v>0.93042689532976885</v>
+        <v>1.170875506682213</v>
       </c>
       <c r="AI2">
-        <v>9.0499444451033639</v>
+        <v>0.11516904940566421</v>
       </c>
       <c r="AJ2">
-        <v>1.768008495551364</v>
+        <v>0.61618146363050141</v>
       </c>
       <c r="AK2">
-        <v>1.2361833775996931</v>
+        <v>0.8812722143338666</v>
       </c>
       <c r="AL2">
-        <v>0.75601953135638911</v>
+        <v>1.4409866641215769</v>
       </c>
       <c r="AM2">
-        <v>10.6057539546426</v>
+        <v>0.1071509235597734</v>
       </c>
       <c r="AN2">
-        <v>9.427984518607758</v>
+        <v>0.11555110854815839</v>
       </c>
       <c r="AO2">
-        <v>18.08418367318199</v>
+        <v>5.7634534007872662E-2</v>
       </c>
       <c r="AP2">
-        <v>1.8820238875666451</v>
+        <v>0.55380460673335263</v>
       </c>
       <c r="AQ2">
-        <v>0.13274071104324139</v>
+        <v>8.2070832221557186</v>
       </c>
       <c r="AR2">
-        <v>0.96343201396442923</v>
+        <v>1.0852930884009599</v>
       </c>
       <c r="AS2">
-        <v>12.678442535992501</v>
+        <v>8.5926489740935905E-2</v>
       </c>
       <c r="AT2">
-        <v>2.03843711108355</v>
+        <v>0.53443594436961206</v>
       </c>
       <c r="AU2">
-        <v>2.5953118602370702</v>
+        <v>0.40159855733923999</v>
       </c>
       <c r="AV2">
-        <v>1.6544034601529469</v>
+        <v>0.65849358317909001</v>
       </c>
       <c r="AW2">
-        <v>0.70864771490599687</v>
+        <v>1.651399872056931</v>
       </c>
       <c r="AX2">
-        <v>1.504355427131904</v>
+        <v>0.72417331891905168</v>
       </c>
       <c r="AY2">
-        <v>4.0008550074993332</v>
+        <v>0.26051268965332441</v>
       </c>
       <c r="AZ2">
-        <v>2.067504934142204</v>
+        <v>0.50605599452128747</v>
       </c>
       <c r="BA2">
-        <v>5.5851823947840931</v>
+        <v>0.19505433941018349</v>
       </c>
       <c r="BB2">
-        <v>2.7853271600682938</v>
+        <v>0.39112606882176348</v>
       </c>
       <c r="BC2">
-        <v>1.4370877455383979</v>
+        <v>0.75807066470520734</v>
       </c>
       <c r="BD2">
-        <v>0.4701967565696501</v>
+        <v>2.3169323209455861</v>
       </c>
       <c r="BE2">
-        <v>2.2910157839494478</v>
+        <v>0.47551573853497281</v>
       </c>
       <c r="BF2">
-        <v>3.7942637384784801</v>
+        <v>0.25998009550653012</v>
       </c>
       <c r="BG2">
-        <v>2.8521334059106609</v>
+        <v>0.38196462347880838</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1007,178 +1033,178 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.97676399650474111</v>
+        <v>1.192622603433757</v>
       </c>
       <c r="C3">
-        <v>0.61919843987778933</v>
+        <v>1.88132066463501</v>
       </c>
       <c r="D3">
-        <v>1.7647523097603881</v>
+        <v>0.63055591070486672</v>
       </c>
       <c r="E3">
-        <v>4.8542129204394211</v>
+        <v>0.23997934156262671</v>
       </c>
       <c r="F3">
-        <v>0.20767381454182801</v>
+        <v>5.6093293370754731</v>
       </c>
       <c r="G3">
-        <v>0.61297674739177044</v>
+        <v>1.9004160033942019</v>
       </c>
       <c r="H3">
-        <v>0.65445264820099158</v>
+        <v>1.7799772430504159</v>
       </c>
       <c r="I3">
-        <v>0.59370571173267306</v>
+        <v>1.9621014206721501</v>
       </c>
       <c r="J3">
-        <v>1.8035224053866921</v>
+        <v>0.64590870452872251</v>
       </c>
       <c r="K3">
-        <v>1.052378968902705</v>
+        <v>1.106930920204986</v>
       </c>
       <c r="L3">
-        <v>3.7088084273929889</v>
+        <v>0.31409301484754532</v>
       </c>
       <c r="M3">
-        <v>2.07381317870423</v>
+        <v>0.351797244311577</v>
       </c>
       <c r="N3">
-        <v>1.690283949011558</v>
+        <v>0.68918054929946271</v>
       </c>
       <c r="O3">
-        <v>10.314180923740629</v>
+        <v>0.1129426397563487</v>
       </c>
       <c r="P3">
-        <v>0.24076824290487969</v>
+        <v>4.8383076040143234</v>
       </c>
       <c r="Q3">
-        <v>8.1171902726127731E-2</v>
+        <v>14.35115823737965</v>
       </c>
       <c r="R3">
-        <v>0.1163114580413787</v>
+        <v>10.01544336274609</v>
       </c>
       <c r="S3">
-        <v>8.4880847406708121E-2</v>
+        <v>13.724071519575601</v>
       </c>
       <c r="T3">
-        <v>2.1992061878941378</v>
+        <v>0.46855465105169047</v>
       </c>
       <c r="U3">
-        <v>0.49837259297783082</v>
+        <v>2.3374295393961741</v>
       </c>
       <c r="V3">
-        <v>0.40478813141730718</v>
+        <v>2.8778284985112559</v>
       </c>
       <c r="W3">
-        <v>0.6512156530659583</v>
+        <v>1.788824969067293</v>
       </c>
       <c r="X3">
-        <v>0.18300846504485829</v>
+        <v>6.3653384567009441</v>
       </c>
       <c r="Y3">
-        <v>0.81638342425912669</v>
+        <v>1.6018890701532209</v>
       </c>
       <c r="Z3">
-        <v>0.27392287197358661</v>
+        <v>4.2526964326081451</v>
       </c>
       <c r="AA3">
-        <v>7.4303631018613912</v>
+        <v>0.15677710557106181</v>
       </c>
       <c r="AB3">
-        <v>7.7181629652295944</v>
+        <v>0.15093109923951861</v>
       </c>
       <c r="AC3">
-        <v>6.6440202825895245E-2</v>
+        <v>17.533221918428811</v>
       </c>
       <c r="AD3">
-        <v>0.7208895430305241</v>
+        <v>1.6159352451621261</v>
       </c>
       <c r="AE3">
-        <v>0.5268848206919029</v>
+        <v>2.210940180288536</v>
       </c>
       <c r="AF3">
-        <v>0.3093235023658093</v>
+        <v>3.7659951847894528</v>
       </c>
       <c r="AG3">
-        <v>3.456049740479215</v>
+        <v>0.33706425194283351</v>
       </c>
       <c r="AH3">
-        <v>0.69168099895363822</v>
+        <v>1.684173516713775</v>
       </c>
       <c r="AI3">
-        <v>6.8006483274965168</v>
+        <v>0.15152206647609259</v>
       </c>
       <c r="AJ3">
-        <v>2.252187518869591</v>
+        <v>0.51723527046119899</v>
       </c>
       <c r="AK3">
-        <v>0.65396310894201426</v>
+        <v>1.781309686316171</v>
       </c>
       <c r="AL3">
-        <v>6.322804309997105</v>
+        <v>0.18423958157458531</v>
       </c>
       <c r="AM3">
-        <v>0.7850994569841252</v>
+        <v>1.440635805496318</v>
       </c>
       <c r="AN3">
-        <v>6.3163705826069121</v>
+        <v>0.18442724428797841</v>
       </c>
       <c r="AO3">
-        <v>3.2101875492767702</v>
+        <v>0.32099317318441573</v>
       </c>
       <c r="AP3">
-        <v>0.3167231574639397</v>
+        <v>3.2534668327079181</v>
       </c>
       <c r="AQ3">
-        <v>0.198210280887051</v>
+        <v>5.8771463076411514</v>
       </c>
       <c r="AR3">
-        <v>0.25839700954512379</v>
+        <v>3.721949183916065</v>
       </c>
       <c r="AS3">
-        <v>1.293237153312387</v>
+        <v>0.90077122936666321</v>
       </c>
       <c r="AT3">
-        <v>0.95397103444182507</v>
+        <v>1.2211176004242501</v>
       </c>
       <c r="AU3">
-        <v>1.0371043307996941</v>
+        <v>0.99358208943635806</v>
       </c>
       <c r="AV3">
-        <v>3.2837732775451438</v>
+        <v>0.35474763998405617</v>
       </c>
       <c r="AW3">
-        <v>2.4070287447704701</v>
+        <v>0.51831587835178317</v>
       </c>
       <c r="AX3">
-        <v>0.58516630799106584</v>
+        <v>1.9907346074846699</v>
       </c>
       <c r="AY3">
-        <v>2.9510631541215511</v>
+        <v>0.34917866346584242</v>
       </c>
       <c r="AZ3">
-        <v>2.321584812687699</v>
+        <v>0.4897689340127318</v>
       </c>
       <c r="BA3">
-        <v>6.5816620156983703</v>
+        <v>0.17699341255648429</v>
       </c>
       <c r="BB3">
-        <v>1.496119947973567</v>
+        <v>0.77862127433677342</v>
       </c>
       <c r="BC3">
-        <v>3.088246806261369</v>
+        <v>0.37720781191775421</v>
       </c>
       <c r="BD3">
-        <v>0.44292028840556957</v>
+        <v>2.6300687752311038</v>
       </c>
       <c r="BE3">
-        <v>6.1293144037435692</v>
+        <v>0.19005564794332691</v>
       </c>
       <c r="BF3">
-        <v>7.0000755855222652</v>
+        <v>0.12968026360642029</v>
       </c>
       <c r="BG3">
-        <v>5.3637904180622229</v>
+        <v>0.21718052527352361</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1186,178 +1212,178 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.7059992724496971</v>
+        <v>0.60317859286077058</v>
       </c>
       <c r="C4">
-        <v>3.0528770354387951</v>
+        <v>0.33706638971451502</v>
       </c>
       <c r="D4">
-        <v>5.1486591457415312</v>
+        <v>0.21032637040273791</v>
       </c>
       <c r="E4">
-        <v>17.707095578393879</v>
+        <v>5.8113553181093867E-2</v>
       </c>
       <c r="F4">
-        <v>1.5206143985240701</v>
+        <v>0.67671478158860354</v>
       </c>
       <c r="G4">
-        <v>4.9679681165608622</v>
+        <v>0.20713140995157009</v>
       </c>
       <c r="H4">
-        <v>0.69044962216079375</v>
+        <v>1.49036541921383</v>
       </c>
       <c r="I4">
-        <v>1.3423111293573959</v>
+        <v>0.76660486385919202</v>
       </c>
       <c r="J4">
-        <v>1.7410801772798929</v>
+        <v>0.59102518884877164</v>
       </c>
       <c r="K4">
-        <v>4.59290813773619</v>
+        <v>0.22404590070571229</v>
       </c>
       <c r="L4">
-        <v>0.6697002126592011</v>
+        <v>1.5365416064177839</v>
       </c>
       <c r="M4">
-        <v>2.2253474809950879</v>
+        <v>0.38877072217793968</v>
       </c>
       <c r="N4">
-        <v>0.33507677418608089</v>
+        <v>3.0710043782570451</v>
       </c>
       <c r="O4">
-        <v>2.1326197199958599</v>
+        <v>0.48251557974888409</v>
       </c>
       <c r="P4">
-        <v>0.42911779158271263</v>
+        <v>2.397994818118272</v>
       </c>
       <c r="Q4">
-        <v>0.70927576449877672</v>
+        <v>1.4508069950830511</v>
       </c>
       <c r="R4">
-        <v>3.350463857081559</v>
+        <v>0.30712829162527888</v>
       </c>
       <c r="S4">
-        <v>1.5486085983461271</v>
+        <v>0.66448180752494435</v>
       </c>
       <c r="T4">
-        <v>0.79485498055165882</v>
+        <v>1.2428105019851059</v>
       </c>
       <c r="U4">
-        <v>2.0080353164713149</v>
+        <v>0.51245226223709184</v>
       </c>
       <c r="V4">
-        <v>1.2290658438975619</v>
+        <v>0.83723931121095163</v>
       </c>
       <c r="W4">
-        <v>1.4785467066526199</v>
+        <v>0.69596870761517959</v>
       </c>
       <c r="X4">
-        <v>1.187566735424431</v>
+        <v>0.8664963491166956</v>
       </c>
       <c r="Y4">
-        <v>1.911908109498744</v>
+        <v>0.65510248440945607</v>
       </c>
       <c r="Z4">
-        <v>1.827683571376306</v>
+        <v>0.56301991039007704</v>
       </c>
       <c r="AA4">
-        <v>4.7232242536697351</v>
+        <v>0.21786436241688081</v>
       </c>
       <c r="AB4">
-        <v>2.5807044094847189</v>
+        <v>0.39873696375136819</v>
       </c>
       <c r="AC4">
-        <v>0.20331329797594799</v>
+        <v>5.0612638269211443</v>
       </c>
       <c r="AD4">
-        <v>0.72668106160848522</v>
+        <v>1.4160576007031069</v>
       </c>
       <c r="AE4">
-        <v>0.84019770973841956</v>
+        <v>1.2247382117931129</v>
       </c>
       <c r="AF4">
-        <v>0.50619643344313336</v>
+        <v>2.032851621609268</v>
       </c>
       <c r="AG4">
-        <v>0.91193603339479179</v>
+        <v>1.1283930044380881</v>
       </c>
       <c r="AH4">
-        <v>1.034513334337813</v>
+        <v>0.99469209958165961</v>
       </c>
       <c r="AI4">
-        <v>3.0349105029388479</v>
+        <v>0.32549695169863407</v>
       </c>
       <c r="AJ4">
-        <v>1.8332729930696761</v>
+        <v>0.56130333260115639</v>
       </c>
       <c r="AK4">
-        <v>1.4578542983699789</v>
+        <v>0.7058471081288773</v>
       </c>
       <c r="AL4">
-        <v>0.90747167930656891</v>
+        <v>1.133944192466714</v>
       </c>
       <c r="AM4">
-        <v>4.5209898242995763</v>
+        <v>0.2400432637199949</v>
       </c>
       <c r="AN4">
-        <v>3.4699770912550729</v>
+        <v>0.29655015393934753</v>
       </c>
       <c r="AO4">
-        <v>4.3770400896561501</v>
+        <v>0.22568998618935851</v>
       </c>
       <c r="AP4">
-        <v>2.0455051201345849</v>
+        <v>0.48293896097398381</v>
       </c>
       <c r="AQ4">
-        <v>0.24972969062292291</v>
+        <v>4.120544249307815</v>
       </c>
       <c r="AR4">
-        <v>0.67599865799227543</v>
+        <v>1.4046770714594961</v>
       </c>
       <c r="AS4">
-        <v>5.1559356536003262</v>
+        <v>0.19958011692003019</v>
       </c>
       <c r="AT4">
-        <v>1.173419571974188</v>
+        <v>0.87694313709669147</v>
       </c>
       <c r="AU4">
-        <v>2.8208478979521479</v>
+        <v>0.35019758353575742</v>
       </c>
       <c r="AV4">
-        <v>6.5915125045827683</v>
+        <v>0.1561132198205302</v>
       </c>
       <c r="AW4">
-        <v>0.77135444482559812</v>
+        <v>1.432078736027419</v>
       </c>
       <c r="AX4">
-        <v>1.9218515995078189</v>
+        <v>0.53543272583649715</v>
       </c>
       <c r="AY4">
-        <v>3.5875107123900221</v>
+        <v>0.27535921048906081</v>
       </c>
       <c r="AZ4">
-        <v>0.6927734111460343</v>
+        <v>1.5470530003503129</v>
       </c>
       <c r="BA4">
-        <v>3.2195073214240959</v>
+        <v>0.31962102826420419</v>
       </c>
       <c r="BB4">
-        <v>1.633241023148315</v>
+        <v>0.6300492248193168</v>
       </c>
       <c r="BC4">
-        <v>0.9256926808821998</v>
+        <v>1.11162404308634</v>
       </c>
       <c r="BD4">
-        <v>0.70565575746566123</v>
+        <v>1.4582496205705191</v>
       </c>
       <c r="BE4">
-        <v>1.1917960823590561</v>
+        <v>0.86342139885276736</v>
       </c>
       <c r="BF4">
-        <v>2.4156906786500509</v>
+        <v>0.37119001308919408</v>
       </c>
       <c r="BG4">
-        <v>2.5083103694656819</v>
+        <v>0.41024518062208593</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1365,178 +1391,178 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.1486823184468109</v>
+        <v>0.87751966375791179</v>
       </c>
       <c r="C5">
-        <v>4.1974451100124908</v>
+        <v>0.2401440150923389</v>
       </c>
       <c r="D5">
-        <v>3.9988525334532832</v>
+        <v>0.26268175989737669</v>
       </c>
       <c r="E5">
-        <v>13.962944536879901</v>
+        <v>7.2190455185561248E-2</v>
       </c>
       <c r="F5">
-        <v>1.347702823427412</v>
+        <v>0.74793293026175234</v>
       </c>
       <c r="G5">
-        <v>2.6078253027638358</v>
+        <v>0.38652563144464203</v>
       </c>
       <c r="H5">
-        <v>0.64883723296000484</v>
+        <v>1.553534955522875</v>
       </c>
       <c r="I5">
-        <v>1.328470674275859</v>
+        <v>0.75876068728242985</v>
       </c>
       <c r="J5">
-        <v>0.89906310713056747</v>
+        <v>1.1211574736563179</v>
       </c>
       <c r="K5">
-        <v>4.0546137764599832</v>
+        <v>0.24860353597677781</v>
       </c>
       <c r="L5">
-        <v>0.60007743313669493</v>
+        <v>1.67976875347434</v>
       </c>
       <c r="M5">
-        <v>2.160342136018409</v>
+        <v>0.40104830529761631</v>
       </c>
       <c r="N5">
-        <v>0.5837892512491385</v>
+        <v>1.7266356303945301</v>
       </c>
       <c r="O5">
-        <v>3.1258619134813919</v>
+        <v>0.32246828226825519</v>
       </c>
       <c r="P5">
-        <v>0.85230596676570236</v>
+        <v>1.1826636925624201</v>
       </c>
       <c r="Q5">
-        <v>0.59989570079695187</v>
+        <v>1.6802776224417091</v>
       </c>
       <c r="R5">
-        <v>2.836337892191827</v>
+        <v>0.35538478141938251</v>
       </c>
       <c r="S5">
-        <v>1.6025655157932419</v>
+        <v>0.6289860301587531</v>
       </c>
       <c r="T5">
-        <v>0.902972838060359</v>
+        <v>1.0742353936415301</v>
       </c>
       <c r="U5">
-        <v>2.469077818726845</v>
+        <v>0.40824607236067878</v>
       </c>
       <c r="V5">
-        <v>1.5233115192514199</v>
+        <v>0.66171056222528313</v>
       </c>
       <c r="W5">
-        <v>1.115017976611703</v>
+        <v>0.9040135163660511</v>
       </c>
       <c r="X5">
-        <v>1.7059482078072949</v>
+        <v>0.59086865429736957</v>
       </c>
       <c r="Y5">
-        <v>2.0242344953049538</v>
+        <v>0.54780563691730899</v>
       </c>
       <c r="Z5">
-        <v>2.3773684052269481</v>
+        <v>0.42399458141696222</v>
       </c>
       <c r="AA5">
-        <v>3.975012146694394</v>
+        <v>0.25358194758885161</v>
       </c>
       <c r="AB5">
-        <v>1.8781816019832021</v>
+        <v>0.53668469586953227</v>
       </c>
       <c r="AC5">
-        <v>0.30947751251980532</v>
+        <v>3.2570745242228232</v>
       </c>
       <c r="AD5">
-        <v>1.147497684130772</v>
+        <v>0.87842558271623983</v>
       </c>
       <c r="AE5">
-        <v>0.94125484385950609</v>
+        <v>1.07090160377285</v>
       </c>
       <c r="AF5">
-        <v>0.62523791183051314</v>
+        <v>1.6121724271277831</v>
       </c>
       <c r="AG5">
-        <v>0.8071408837487215</v>
+        <v>1.248841859139322</v>
       </c>
       <c r="AH5">
-        <v>1.5594954899550231</v>
+        <v>0.646357317697134</v>
       </c>
       <c r="AI5">
-        <v>4.0660650119752226</v>
+        <v>0.23856120826513089</v>
       </c>
       <c r="AJ5">
-        <v>1.3098057659960649</v>
+        <v>0.76957312909793285</v>
       </c>
       <c r="AK5">
-        <v>1.525988700481075</v>
+        <v>0.66054966300230478</v>
       </c>
       <c r="AL5">
-        <v>0.70070584428901317</v>
+        <v>1.4385370552615999</v>
       </c>
       <c r="AM5">
-        <v>2.4299984431751671</v>
+        <v>0.43283498242620838</v>
       </c>
       <c r="AN5">
-        <v>2.3161166809307621</v>
+        <v>0.43520748766553141</v>
       </c>
       <c r="AO5">
-        <v>2.9722795512587572</v>
+        <v>0.32635065625997128</v>
       </c>
       <c r="AP5">
-        <v>1.7946312243224229</v>
+        <v>0.54050401497255562</v>
       </c>
       <c r="AQ5">
-        <v>0.26866541159908469</v>
+        <v>3.7518462679977538</v>
       </c>
       <c r="AR5">
-        <v>0.85224431041239102</v>
+        <v>1.1390879579782831</v>
       </c>
       <c r="AS5">
-        <v>9.2631901295618633</v>
+        <v>0.10881686630087339</v>
       </c>
       <c r="AT5">
-        <v>1.962291123668612</v>
+        <v>0.51368082426200357</v>
       </c>
       <c r="AU5">
-        <v>2.5015075998600351</v>
+        <v>0.38776831307474641</v>
       </c>
       <c r="AV5">
-        <v>4.2353897793130173</v>
+        <v>0.23799257550543529</v>
       </c>
       <c r="AW5">
-        <v>0.86384150778819835</v>
+        <v>1.2493401374729991</v>
       </c>
       <c r="AX5">
-        <v>1.329721376668078</v>
+        <v>0.75804701611540382</v>
       </c>
       <c r="AY5">
-        <v>3.042977556017127</v>
+        <v>0.31876849706739108</v>
       </c>
       <c r="AZ5">
-        <v>0.48878994378115709</v>
+        <v>2.1015521773695989</v>
       </c>
       <c r="BA5">
-        <v>2.2618530715299161</v>
+        <v>0.4456484528264697</v>
       </c>
       <c r="BB5">
-        <v>2.272509677707601</v>
+        <v>0.44355864872044148</v>
       </c>
       <c r="BC5">
-        <v>0.69873053534419127</v>
+        <v>1.442603794825672</v>
       </c>
       <c r="BD5">
-        <v>0.71626375333982029</v>
+        <v>1.4072907042245379</v>
       </c>
       <c r="BE5">
-        <v>1.3626474649605</v>
+        <v>0.7397300826280282</v>
       </c>
       <c r="BF5">
-        <v>1.573882822800567</v>
+        <v>0.60242850556060168</v>
       </c>
       <c r="BG5">
-        <v>2.2619027969291579</v>
+        <v>0.445638655744443</v>
       </c>
     </row>
     <row r="6" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1544,178 +1570,178 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.65495697362346728</v>
+        <v>1.8217014899065509</v>
       </c>
       <c r="C6">
-        <v>0.61109818369344127</v>
+        <v>1.952445820511711</v>
       </c>
       <c r="D6">
-        <v>0.57417680513972336</v>
+        <v>2.2318688563915789</v>
       </c>
       <c r="E6">
-        <v>52.232760892967271</v>
+        <v>2.2842677168060821E-2</v>
       </c>
       <c r="F6">
-        <v>5.9287947231342723E-2</v>
+        <v>20.124429169708261</v>
       </c>
       <c r="G6">
-        <v>7.2711445352252371</v>
+        <v>0.16409192375345791</v>
       </c>
       <c r="H6">
-        <v>3.7241366567388421</v>
+        <v>0.32037924615778279</v>
       </c>
       <c r="I6">
-        <v>0.60816956180302117</v>
+        <v>1.961847763537035</v>
       </c>
       <c r="J6">
-        <v>0.14298070110341779</v>
+        <v>8.3447352367615082</v>
       </c>
       <c r="K6">
-        <v>0.62360090031264181</v>
+        <v>1.913300789136736</v>
       </c>
       <c r="L6">
-        <v>9.9341131994566325</v>
+        <v>0.1201049425065762</v>
       </c>
       <c r="M6">
-        <v>254.44271368911271</v>
+        <v>3.236389412346637E-3</v>
       </c>
       <c r="N6">
-        <v>1.750456458835653</v>
+        <v>0.68161426618300125</v>
       </c>
       <c r="O6">
-        <v>0.98351116839022346</v>
+        <v>1.2131393450543511</v>
       </c>
       <c r="P6">
-        <v>4.6241849954407638E-2</v>
+        <v>25.802083953192369</v>
       </c>
       <c r="Q6">
-        <v>4.6105407659042537E-2</v>
+        <v>25.878441494282111</v>
       </c>
       <c r="R6">
-        <v>1.932725840764723</v>
+        <v>0.61733333797744572</v>
       </c>
       <c r="S6">
-        <v>0.1331306506333568</v>
+        <v>8.9621442470109471</v>
       </c>
       <c r="T6">
-        <v>0.26315661792620149</v>
+        <v>3.3653096329362371</v>
       </c>
       <c r="U6">
-        <v>2.1600390385758041</v>
+        <v>0.55236783843556714</v>
       </c>
       <c r="V6">
-        <v>1.549913816191073</v>
+        <v>0.7698080255886095</v>
       </c>
       <c r="W6">
-        <v>0.69352595368813419</v>
+        <v>1.720391411928462</v>
       </c>
       <c r="X6">
-        <v>5.5905387429309603E-2</v>
+        <v>21.342059317328498</v>
       </c>
       <c r="Y6">
-        <v>2.2161174218244559</v>
+        <v>0.54943390280105131</v>
       </c>
       <c r="Z6">
-        <v>0.19651291640212701</v>
+        <v>6.0715403166325634</v>
       </c>
       <c r="AA6">
-        <v>3.6507074774691479</v>
+        <v>0.3268232533113552</v>
       </c>
       <c r="AB6">
-        <v>47.098247589104112</v>
+        <v>2.5332919073417511E-2</v>
       </c>
       <c r="AC6">
-        <v>3.4296407047399338E-3</v>
+        <v>347.88953053466707</v>
       </c>
       <c r="AD6">
-        <v>1.284016861589107</v>
+        <v>0.92922151598378011</v>
       </c>
       <c r="AE6">
-        <v>3.0291960514284511</v>
+        <v>0.39387879635981993</v>
       </c>
       <c r="AF6">
-        <v>0.1036285480141948</v>
+        <v>11.5135849873253</v>
       </c>
       <c r="AG6">
-        <v>0.51491991664235259</v>
+        <v>2.3171294333586152</v>
       </c>
       <c r="AH6">
-        <v>0.50550788063465291</v>
+        <v>2.360271996504983</v>
       </c>
       <c r="AI6">
-        <v>107.4636663725948</v>
+        <v>8.2409574433039111E-3</v>
       </c>
       <c r="AJ6">
-        <v>0.22327194149166529</v>
+        <v>5.3438693939923354</v>
       </c>
       <c r="AK6">
-        <v>3.6659620146921708E-2</v>
+        <v>32.546329991767401</v>
       </c>
       <c r="AL6">
-        <v>18.309142132758101</v>
+        <v>6.5166138643920249E-2</v>
       </c>
       <c r="AM6">
-        <v>1.27735618916417</v>
+        <v>0.74464905142718307</v>
       </c>
       <c r="AN6">
-        <v>20.013069234191381</v>
+        <v>5.9617846753667332E-2</v>
       </c>
       <c r="AO6">
-        <v>0.79935688267741845</v>
+        <v>1.1078950096878739</v>
       </c>
       <c r="AP6">
-        <v>0.19246139213940561</v>
+        <v>4.6014605393506658</v>
       </c>
       <c r="AQ6">
-        <v>5.6785258342935907E-2</v>
+        <v>21.011370371320769</v>
       </c>
       <c r="AR6">
-        <v>9.3381216465199202E-2</v>
+        <v>9.4837434636333882</v>
       </c>
       <c r="AS6">
-        <v>4.5116934902253787</v>
+        <v>0.26445415612995388</v>
       </c>
       <c r="AT6">
-        <v>2.8855997240748388</v>
+        <v>0.4134794180634645</v>
       </c>
       <c r="AU6">
-        <v>15.52026588130798</v>
+        <v>5.7061103724038352E-2</v>
       </c>
       <c r="AV6">
-        <v>3.0164984219676172</v>
+        <v>0.39553678728474012</v>
       </c>
       <c r="AW6">
-        <v>4.0457075305339076</v>
+        <v>0.30020390828495419</v>
       </c>
       <c r="AX6">
-        <v>10.98883066309971</v>
+        <v>0.1085771663295424</v>
       </c>
       <c r="AY6">
-        <v>72.415110994299482</v>
+        <v>1.222954006585285E-2</v>
       </c>
       <c r="AZ6">
-        <v>2.7320972495394882</v>
+        <v>0.3744090339537452</v>
       </c>
       <c r="BA6">
-        <v>1.060216404361251</v>
+        <v>1.1253703392689769</v>
       </c>
       <c r="BB6">
-        <v>0.9833591038081051</v>
+        <v>1.2133269423693549</v>
       </c>
       <c r="BC6">
-        <v>2.2041734147504002</v>
+        <v>0.54130772410648431</v>
       </c>
       <c r="BD6">
-        <v>0.5122467289774737</v>
+        <v>2.329221500459838</v>
       </c>
       <c r="BE6">
-        <v>6.275601225987665</v>
+        <v>0.19012299407006661</v>
       </c>
       <c r="BF6">
-        <v>334.84238659829748</v>
+        <v>2.6448369045356441E-3</v>
       </c>
       <c r="BG6">
-        <v>11.27949636813443</v>
+        <v>0.1057791993306787</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1723,178 +1749,178 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.294680205494245</v>
+        <v>0.77381724476972047</v>
       </c>
       <c r="C7">
-        <v>1.0199153706978801</v>
+        <v>0.98228333277096902</v>
       </c>
       <c r="D7">
-        <v>2.3568382079261898</v>
+        <v>0.44265949440363589</v>
       </c>
       <c r="E7">
-        <v>16.150714490718428</v>
+        <v>6.2031055656961501E-2</v>
       </c>
       <c r="F7">
-        <v>0.51329117360114884</v>
+        <v>1.95180809840289</v>
       </c>
       <c r="G7">
-        <v>5.0815424008342811</v>
+        <v>0.19715389353220189</v>
       </c>
       <c r="H7">
-        <v>0.87113469959260414</v>
+        <v>1.150047024807954</v>
       </c>
       <c r="I7">
-        <v>0.51412256787335209</v>
+        <v>1.9486518042138119</v>
       </c>
       <c r="J7">
-        <v>0.67648054837085692</v>
+        <v>1.480967740885019</v>
       </c>
       <c r="K7">
-        <v>1.0544765333988071</v>
+        <v>0.95008834975614087</v>
       </c>
       <c r="L7">
-        <v>1.246399055409666</v>
+        <v>0.80379222458906574</v>
       </c>
       <c r="M7">
-        <v>4.8649258776435786</v>
+        <v>0.19432239847235261</v>
       </c>
       <c r="N7">
-        <v>0.56475637231492093</v>
+        <v>1.7739434534698799</v>
       </c>
       <c r="O7">
-        <v>0.95668005015808755</v>
+        <v>1.047210997352666</v>
       </c>
       <c r="P7">
-        <v>0.6421122682908903</v>
+        <v>1.5602347423450771</v>
       </c>
       <c r="Q7">
-        <v>0.22386123900095931</v>
+        <v>4.4752985105615126</v>
       </c>
       <c r="R7">
-        <v>1.5485099336201</v>
+        <v>0.6469741315325882</v>
       </c>
       <c r="S7">
-        <v>1.0879325419913</v>
+        <v>0.92087131398764821</v>
       </c>
       <c r="T7">
-        <v>1.086447028255384</v>
+        <v>0.84715891671014087</v>
       </c>
       <c r="U7">
-        <v>0.89144742897816254</v>
+        <v>1.1238417846151949</v>
       </c>
       <c r="V7">
-        <v>0.7477902041925909</v>
+        <v>1.3397419006781059</v>
       </c>
       <c r="W7">
-        <v>2.333229395248861</v>
+        <v>0.42938164224808001</v>
       </c>
       <c r="X7">
-        <v>0.40842365938172731</v>
+        <v>2.4529574780022458</v>
       </c>
       <c r="Y7">
-        <v>1.2537267606052169</v>
+        <v>0.96899806411175604</v>
       </c>
       <c r="Z7">
-        <v>1.806486699863489</v>
+        <v>0.55458247744041367</v>
       </c>
       <c r="AA7">
-        <v>1.3363251131307841</v>
+        <v>0.74970219419606177</v>
       </c>
       <c r="AB7">
-        <v>2.5795537381984039</v>
+        <v>0.38837953039627537</v>
       </c>
       <c r="AC7">
-        <v>0.3020423262452383</v>
+        <v>3.3169055540249608</v>
       </c>
       <c r="AD7">
-        <v>0.71332696465098777</v>
+        <v>1.404469365550514</v>
       </c>
       <c r="AE7">
-        <v>0.6067867291928658</v>
+        <v>1.651067535386084</v>
       </c>
       <c r="AF7">
-        <v>0.39007846084939207</v>
+        <v>2.5683188640868311</v>
       </c>
       <c r="AG7">
-        <v>1.6649169553420471</v>
+        <v>0.60173924366553366</v>
       </c>
       <c r="AH7">
-        <v>0.68098240741875704</v>
+        <v>1.4711773146547431</v>
       </c>
       <c r="AI7">
-        <v>5.7860043381119448</v>
+        <v>0.15907234660320421</v>
       </c>
       <c r="AJ7">
-        <v>0.32554732306453021</v>
+        <v>3.077420081488015</v>
       </c>
       <c r="AK7">
-        <v>0.4138288438807663</v>
+        <v>2.4209184166053581</v>
       </c>
       <c r="AL7">
-        <v>2.0417332179701919</v>
+        <v>0.49068402309163678</v>
       </c>
       <c r="AM7">
-        <v>1.7300480519681449</v>
+        <v>0.55094676883345794</v>
       </c>
       <c r="AN7">
-        <v>6.8180469979167944</v>
+        <v>0.1469402997338618</v>
       </c>
       <c r="AO7">
-        <v>1.242902927188114</v>
+        <v>0.74051904407533831</v>
       </c>
       <c r="AP7">
-        <v>0.91713982365327107</v>
+        <v>1.003547402241846</v>
       </c>
       <c r="AQ7">
-        <v>0.2951459030209061</v>
+        <v>3.3944088642913961</v>
       </c>
       <c r="AR7">
-        <v>0.42767198190534739</v>
+        <v>2.2062921916186311</v>
       </c>
       <c r="AS7">
-        <v>2.7955832396727849</v>
+        <v>0.3583673901231102</v>
       </c>
       <c r="AT7">
-        <v>1.1588124936402531</v>
+        <v>0.86454527800808079</v>
       </c>
       <c r="AU7">
-        <v>4.0041593281067591</v>
+        <v>0.2298593068110916</v>
       </c>
       <c r="AV7">
-        <v>2.3765666853478482</v>
+        <v>0.42155176021362711</v>
       </c>
       <c r="AW7">
-        <v>1.599138308851443</v>
+        <v>0.63025038346641371</v>
       </c>
       <c r="AX7">
-        <v>3.7240116344132499</v>
+        <v>0.2690232920368672</v>
       </c>
       <c r="AY7">
-        <v>2.3767840099987292</v>
+        <v>0.38724313343065542</v>
       </c>
       <c r="AZ7">
-        <v>1.181089468160698</v>
+        <v>0.84152006658188105</v>
       </c>
       <c r="BA7">
-        <v>0.9201523994402534</v>
+        <v>1.0887825430688329</v>
       </c>
       <c r="BB7">
-        <v>1.911771021213853</v>
+        <v>0.52404072368318422</v>
       </c>
       <c r="BC7">
-        <v>0.39599555635504519</v>
+        <v>2.5299422011069321</v>
       </c>
       <c r="BD7">
-        <v>0.52967094405168402</v>
+        <v>1.891449551319345</v>
       </c>
       <c r="BE7">
-        <v>1.6504033950467401</v>
+        <v>0.60703090679541327</v>
       </c>
       <c r="BF7">
-        <v>4.8150802919532154</v>
+        <v>0.19521690012592979</v>
       </c>
       <c r="BG7">
-        <v>1.4414762878967231</v>
+        <v>0.69501377017811095</v>
       </c>
     </row>
     <row r="8" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1902,178 +1928,178 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.98495943162839505</v>
+        <v>1.015270241482672</v>
       </c>
       <c r="C8">
-        <v>3.409381448575969</v>
+        <v>0.29330833615513408</v>
       </c>
       <c r="D8">
-        <v>19.923136535603351</v>
+        <v>5.0192900009140701E-2</v>
       </c>
       <c r="E8">
-        <v>142.21929559349709</v>
+        <v>7.031394691043062E-3</v>
       </c>
       <c r="F8">
-        <v>0.90314370997626925</v>
+        <v>1.1072434973015259</v>
       </c>
       <c r="G8">
-        <v>23.90994620470121</v>
+        <v>4.1823598908950231E-2</v>
       </c>
       <c r="H8">
-        <v>2.029057959644367</v>
+        <v>0.49283954420664627</v>
       </c>
       <c r="I8">
-        <v>0.24744196290826639</v>
+        <v>4.0413517103027647</v>
       </c>
       <c r="J8">
-        <v>1.246626020886253</v>
+        <v>0.80216519087984073</v>
       </c>
       <c r="K8">
-        <v>6.1856621079389136</v>
+        <v>0.16166418122266391</v>
       </c>
       <c r="L8">
-        <v>1.9020114579081291</v>
+        <v>0.52575918817009493</v>
       </c>
       <c r="M8">
-        <v>7.0263468543112308</v>
+        <v>0.1289865158654824</v>
       </c>
       <c r="N8">
-        <v>0.48324016384131951</v>
+        <v>2.0693644171686931</v>
       </c>
       <c r="O8">
-        <v>0.30078338699691298</v>
+        <v>3.3246517036203969</v>
       </c>
       <c r="P8">
-        <v>6.9417379363608853E-2</v>
+        <v>14.4056144033036</v>
       </c>
       <c r="Q8">
-        <v>0.27662590495850442</v>
+        <v>3.6149904331989688</v>
       </c>
       <c r="R8">
-        <v>4.5520321458374147</v>
+        <v>0.2196821041596643</v>
       </c>
       <c r="S8">
-        <v>1.50029983965696</v>
+        <v>0.66653343122975117</v>
       </c>
       <c r="T8">
-        <v>0.46435581258473058</v>
+        <v>1.9190801016136569</v>
       </c>
       <c r="U8">
-        <v>0.11626503083931961</v>
+        <v>8.6010384445002899</v>
       </c>
       <c r="V8">
-        <v>0.65127175932298276</v>
+        <v>1.5354573351062051</v>
       </c>
       <c r="W8">
-        <v>0.28840597170718613</v>
+        <v>3.4673345842342118</v>
       </c>
       <c r="X8">
-        <v>0.59260858179649867</v>
+        <v>1.7725230235020271</v>
       </c>
       <c r="Y8">
-        <v>0.51403736277561862</v>
+        <v>1.9453838814368569</v>
       </c>
       <c r="Z8">
-        <v>1.6368360395017241</v>
+        <v>0.61093473986827096</v>
       </c>
       <c r="AA8">
-        <v>3.639093652415109</v>
+        <v>0.27479369741868093</v>
       </c>
       <c r="AB8">
-        <v>24.02071754657597</v>
+        <v>4.1630729725746572E-2</v>
       </c>
       <c r="AC8">
-        <v>2.0080895279225269E-2</v>
+        <v>49.798576512400231</v>
       </c>
       <c r="AD8">
-        <v>0.54824994812125749</v>
+        <v>1.8239855807133141</v>
       </c>
       <c r="AE8">
-        <v>0.32488649916948059</v>
+        <v>3.0779980164036731</v>
       </c>
       <c r="AF8">
-        <v>1.6592699104770799E-2</v>
+        <v>60.267470270250911</v>
       </c>
       <c r="AG8">
-        <v>1.177573483900306</v>
+        <v>0.84920390419104996</v>
       </c>
       <c r="AH8">
-        <v>0.49882278406614161</v>
+        <v>2.0047199765987469</v>
       </c>
       <c r="AI8">
-        <v>70.609502512145284</v>
+        <v>1.2620624254458051E-2</v>
       </c>
       <c r="AJ8">
-        <v>0.41095269215284602</v>
+        <v>2.5928938588441581</v>
       </c>
       <c r="AK8">
-        <v>1.008933520386919</v>
+        <v>0.99114558074798331</v>
       </c>
       <c r="AL8">
-        <v>5.7465283955642983</v>
+        <v>0.1740181081802176</v>
       </c>
       <c r="AM8">
-        <v>4.2598570953563781</v>
+        <v>0.2091938720130809</v>
       </c>
       <c r="AN8">
-        <v>4.0247358056246396</v>
+        <v>0.2484635137050426</v>
       </c>
       <c r="AO8">
-        <v>0.17562841616600311</v>
+        <v>5.0739852892467043</v>
       </c>
       <c r="AP8">
-        <v>0.96955825279945296</v>
+        <v>0.91911548112449692</v>
       </c>
       <c r="AQ8">
-        <v>1.667852661347715E-2</v>
+        <v>59.957334552078727</v>
       </c>
       <c r="AR8">
-        <v>0.1512781689090516</v>
+        <v>5.8907111741665021</v>
       </c>
       <c r="AS8">
-        <v>0.53620188802302016</v>
+        <v>1.864969188540176</v>
       </c>
       <c r="AT8">
-        <v>3.485001538480418</v>
+        <v>0.28694391923741741</v>
       </c>
       <c r="AU8">
-        <v>30.47813487821551</v>
+        <v>2.9238534561277989E-2</v>
       </c>
       <c r="AV8">
-        <v>0.86194567719645954</v>
+        <v>1.9667995605277939</v>
       </c>
       <c r="AW8">
-        <v>1.0546779518780489</v>
+        <v>0.94815673184341531</v>
       </c>
       <c r="AX8">
-        <v>0.53399112143286942</v>
+        <v>1.872690312372008</v>
       </c>
       <c r="AY8">
-        <v>5.4812281990999434</v>
+        <v>0.1625796204117779</v>
       </c>
       <c r="AZ8">
-        <v>0.89668065185986834</v>
+        <v>1.095573097943475</v>
       </c>
       <c r="BA8">
-        <v>2.048375915732584</v>
+        <v>0.48819164115311248</v>
       </c>
       <c r="BB8">
-        <v>1.9988856227605529</v>
+        <v>0.50027874962597951</v>
       </c>
       <c r="BC8">
-        <v>1.1053167818504961</v>
+        <v>0.90471801063747415</v>
       </c>
       <c r="BD8">
-        <v>3.138805939960887</v>
+        <v>0.31859248998759709</v>
       </c>
       <c r="BE8">
-        <v>7.925185965532334</v>
+        <v>0.1261800043997863</v>
       </c>
       <c r="BF8">
-        <v>6.4150596604111776</v>
+        <v>0.12071594669321641</v>
       </c>
       <c r="BG8">
-        <v>2.3069037081484778</v>
+        <v>0.43348146542388488</v>
       </c>
     </row>
     <row r="9" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2081,178 +2107,178 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.21636681629190371</v>
+        <v>5.6021359002496371</v>
       </c>
       <c r="C9">
-        <v>2.314866017543634</v>
+        <v>0.52362266324933937</v>
       </c>
       <c r="D9">
-        <v>23.380314518104331</v>
+        <v>5.1555836919649198E-2</v>
       </c>
       <c r="E9">
-        <v>0.57646425490348363</v>
+        <v>2.1026738411985999</v>
       </c>
       <c r="F9">
-        <v>1.134447251231385</v>
+        <v>1.068464230360564</v>
       </c>
       <c r="G9">
-        <v>33.721131974774217</v>
+        <v>3.5945303084082288E-2</v>
       </c>
       <c r="H9">
-        <v>0.1567650597002761</v>
+        <v>7.7320565659789313</v>
       </c>
       <c r="I9">
-        <v>0.46677751479241258</v>
+        <v>2.59677527464161</v>
       </c>
       <c r="J9">
-        <v>0.2373455297829673</v>
+        <v>5.1069691949959006</v>
       </c>
       <c r="K9">
-        <v>0.25252297126090401</v>
+        <v>4.8000239468085786</v>
       </c>
       <c r="L9">
-        <v>0.82690239223974604</v>
+        <v>1.465851738424006</v>
       </c>
       <c r="M9">
-        <v>3.3496959633473971</v>
+        <v>0.36744707242569041</v>
       </c>
       <c r="N9">
-        <v>0.41417605874862529</v>
+        <v>2.926572609807117</v>
       </c>
       <c r="O9">
-        <v>4.2080412926902122</v>
+        <v>0.28804762711743381</v>
       </c>
       <c r="P9">
-        <v>0.77679999031328617</v>
+        <v>1.560396915920073</v>
       </c>
       <c r="Q9">
-        <v>0.32762264524339518</v>
+        <v>3.699732990895968</v>
       </c>
       <c r="R9">
-        <v>0.91475637291071354</v>
+        <v>1.3250700897712251</v>
       </c>
       <c r="S9">
-        <v>2.2785710742477652</v>
+        <v>0.53196335320449017</v>
       </c>
       <c r="T9">
-        <v>0.40984746348316581</v>
+        <v>3.3085731032097541</v>
       </c>
       <c r="U9">
-        <v>0.86799135196642296</v>
+        <v>1.396461273981084</v>
       </c>
       <c r="V9">
-        <v>0.13697629974381129</v>
+        <v>8.8490951459385894</v>
       </c>
       <c r="W9">
-        <v>2.6665236255441478</v>
+        <v>0.45456799915817081</v>
       </c>
       <c r="X9">
-        <v>0.84034900034965254</v>
+        <v>1.442396324226312</v>
       </c>
       <c r="Y9">
-        <v>0.40590584560737192</v>
+        <v>2.2372072821826579</v>
       </c>
       <c r="Z9">
-        <v>2.486383304619562</v>
+        <v>0.48750178901199598</v>
       </c>
       <c r="AA9">
-        <v>1.463640456114681</v>
+        <v>0.82815168445755505</v>
       </c>
       <c r="AB9">
-        <v>1.0388577883712891</v>
+        <v>1.1667779004400001</v>
       </c>
       <c r="AC9">
-        <v>4.4534206939428958E-2</v>
+        <v>27.21764666922661</v>
       </c>
       <c r="AD9">
-        <v>0.75657664297006211</v>
+        <v>1.602106436187666</v>
       </c>
       <c r="AE9">
-        <v>1.550375066371358</v>
+        <v>0.78182133824465028</v>
       </c>
       <c r="AF9">
-        <v>0.38889922606558608</v>
+        <v>3.1167876609946772</v>
       </c>
       <c r="AG9">
-        <v>1.208352971243096</v>
+        <v>1.003114435945504</v>
       </c>
       <c r="AH9">
-        <v>1.8469206867534389</v>
+        <v>0.65629039615246476</v>
       </c>
       <c r="AI9">
-        <v>4.3690812816613773</v>
+        <v>0.31036508745918973</v>
       </c>
       <c r="AJ9">
-        <v>0.29738288904646532</v>
+        <v>4.0759450318683346</v>
       </c>
       <c r="AK9">
-        <v>0.28062952659190871</v>
+        <v>4.319275750816689</v>
       </c>
       <c r="AL9">
-        <v>0.44272560003993727</v>
+        <v>2.7378500566993509</v>
       </c>
       <c r="AM9">
-        <v>3.4136070570177441</v>
+        <v>0.42046920809871757</v>
       </c>
       <c r="AN9">
-        <v>17.358035581916649</v>
+        <v>6.9830269874222792E-2</v>
       </c>
       <c r="AO9">
-        <v>1.794455335825079</v>
+        <v>0.75566678480501448</v>
       </c>
       <c r="AP9">
-        <v>0.26017539890078373</v>
+        <v>5.2119081966556378</v>
       </c>
       <c r="AQ9">
-        <v>0.60684682161705295</v>
+        <v>1.997400770661852</v>
       </c>
       <c r="AR9">
-        <v>0.83578600312249196</v>
+        <v>1.681971248564804</v>
       </c>
       <c r="AS9">
-        <v>6.7905928894958203</v>
+        <v>0.1784993341371694</v>
       </c>
       <c r="AT9">
-        <v>0.47190366069331102</v>
+        <v>2.5685672948389211</v>
       </c>
       <c r="AU9">
-        <v>0.97395845593925001</v>
+        <v>1.3922670785700619</v>
       </c>
       <c r="AV9">
-        <v>2.304520294711204</v>
+        <v>0.52597337153131618</v>
       </c>
       <c r="AW9">
-        <v>3.5600155533721152</v>
+        <v>0.35161277125847412</v>
       </c>
       <c r="AX9">
-        <v>0.7255856993550257</v>
+        <v>1.670535003996158</v>
       </c>
       <c r="AY9">
-        <v>3.272593552233277</v>
+        <v>0.41435340883495181</v>
       </c>
       <c r="AZ9">
-        <v>1.48036759783914</v>
+        <v>0.7660773280208576</v>
       </c>
       <c r="BA9">
-        <v>1.1907731217348529</v>
+        <v>1.017923806850507</v>
       </c>
       <c r="BB9">
-        <v>1.2754559542523041</v>
+        <v>0.95033960610749268</v>
       </c>
       <c r="BC9">
-        <v>0.69656846310812148</v>
+        <v>1.740125161226896</v>
       </c>
       <c r="BD9">
-        <v>0.31272553782387319</v>
+        <v>3.8759748167873078</v>
       </c>
       <c r="BE9">
-        <v>0.21950752084782379</v>
+        <v>5.5219807708179189</v>
       </c>
       <c r="BF9">
-        <v>2.0809034953789549</v>
+        <v>0.70235695006373644</v>
       </c>
       <c r="BG9">
-        <v>5.5791482863913382</v>
+        <v>0.21725830663583359</v>
       </c>
     </row>
     <row r="10" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -2260,178 +2286,178 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.44602593777811023</v>
+        <v>2.2862757285861059</v>
       </c>
       <c r="C10">
-        <v>1.994415099079035</v>
+        <v>0.51129690922056903</v>
       </c>
       <c r="D10">
-        <v>2.0754207984693109</v>
+        <v>0.47774365015519799</v>
       </c>
       <c r="E10">
-        <v>2.0609839465364721</v>
+        <v>0.4947822507669915</v>
       </c>
       <c r="F10">
-        <v>1.280094300199814</v>
+        <v>0.79661184000489405</v>
       </c>
       <c r="G10">
-        <v>0.94621933452865403</v>
+        <v>1.077697568259818</v>
       </c>
       <c r="H10">
-        <v>0.85214361546233885</v>
+        <v>1.1966741959436979</v>
       </c>
       <c r="I10">
-        <v>1.6095664493297599</v>
+        <v>0.63354841689610308</v>
       </c>
       <c r="J10">
-        <v>0.5984670418890824</v>
+        <v>1.70391718254545</v>
       </c>
       <c r="K10">
-        <v>2.7678412250533899</v>
+        <v>0.36842368941964221</v>
       </c>
       <c r="L10">
-        <v>0.59097540645274527</v>
+        <v>1.725517279953827</v>
       </c>
       <c r="M10">
-        <v>1.4880135191280259</v>
+        <v>0.64167826769913505</v>
       </c>
       <c r="N10">
-        <v>0.31270428367120329</v>
+        <v>3.261030721709488</v>
       </c>
       <c r="O10">
-        <v>1.5663932186000289</v>
+        <v>0.65101040004077038</v>
       </c>
       <c r="P10">
-        <v>0.78238237940497624</v>
+        <v>1.3033758207048121</v>
       </c>
       <c r="Q10">
-        <v>1.034568892757969</v>
+        <v>0.98566493058138793</v>
       </c>
       <c r="R10">
-        <v>2.754424125074836</v>
+        <v>0.37021832134666133</v>
       </c>
       <c r="S10">
-        <v>1.2790042572748881</v>
+        <v>0.79729075963723206</v>
       </c>
       <c r="T10">
-        <v>1.4320921251718981</v>
+        <v>0.67471977504378355</v>
       </c>
       <c r="U10">
-        <v>1.2952171278139979</v>
+        <v>0.78731067862190363</v>
       </c>
       <c r="V10">
-        <v>0.56564856768989191</v>
+        <v>1.80277708476583</v>
       </c>
       <c r="W10">
-        <v>1.0388105890783099</v>
+        <v>0.98164023988888749</v>
       </c>
       <c r="X10">
-        <v>0.8852968669313539</v>
+        <v>1.1518602560930811</v>
       </c>
       <c r="Y10">
-        <v>1.7243519444815849</v>
+        <v>0.63512959568997329</v>
       </c>
       <c r="Z10">
-        <v>2.2722944917320071</v>
+        <v>0.4487702978519641</v>
       </c>
       <c r="AA10">
-        <v>3.705487322671051</v>
+        <v>0.27519680599713559</v>
       </c>
       <c r="AB10">
-        <v>1.6458373898322609</v>
+        <v>0.61958628608253907</v>
       </c>
       <c r="AC10">
-        <v>0.29320012044956489</v>
+        <v>3.4779599486466131</v>
       </c>
       <c r="AD10">
-        <v>0.6738144867220891</v>
+        <v>1.513381347472474</v>
       </c>
       <c r="AE10">
-        <v>0.69967945938560316</v>
+        <v>1.457436347720422</v>
       </c>
       <c r="AF10">
-        <v>0.76436712241952398</v>
+        <v>1.3340948949165661</v>
       </c>
       <c r="AG10">
-        <v>1.112894203902673</v>
+        <v>0.91629399478041618</v>
       </c>
       <c r="AH10">
-        <v>1.527004047509223</v>
+        <v>0.66780325666149654</v>
       </c>
       <c r="AI10">
-        <v>1.1768104962770971</v>
+        <v>0.82108451581182829</v>
       </c>
       <c r="AJ10">
-        <v>1.396375037454062</v>
+        <v>0.73027535476513883</v>
       </c>
       <c r="AK10">
-        <v>1.9055880024828971</v>
+        <v>0.53513050802863948</v>
       </c>
       <c r="AL10">
-        <v>1.4120413227713871</v>
+        <v>0.72217311166257503</v>
       </c>
       <c r="AM10">
-        <v>3.343068822397059</v>
+        <v>0.29290504573255111</v>
       </c>
       <c r="AN10">
-        <v>1.924608503456811</v>
+        <v>0.52984192578926481</v>
       </c>
       <c r="AO10">
-        <v>2.8867966563433312</v>
+        <v>0.33471733258895681</v>
       </c>
       <c r="AP10">
-        <v>1.4144235761092321</v>
+        <v>0.68314816923225341</v>
       </c>
       <c r="AQ10">
-        <v>0.23636451845574841</v>
+        <v>4.3142612204414137</v>
       </c>
       <c r="AR10">
-        <v>0.94717847688213097</v>
+        <v>1.0469593179547221</v>
       </c>
       <c r="AS10">
-        <v>6.9728371147021697</v>
+        <v>0.1462443850454847</v>
       </c>
       <c r="AT10">
-        <v>1.28167009516298</v>
+        <v>0.79563241719568734</v>
       </c>
       <c r="AU10">
-        <v>0.89851763929212136</v>
+        <v>1.0753944433402629</v>
       </c>
       <c r="AV10">
-        <v>1.54395016925277</v>
+        <v>0.66047356719774941</v>
       </c>
       <c r="AW10">
-        <v>0.94903757769267671</v>
+        <v>1.0868897854393009</v>
       </c>
       <c r="AX10">
-        <v>0.52991644854336717</v>
+        <v>1.9243378435694929</v>
       </c>
       <c r="AY10">
-        <v>0.57118147748188786</v>
+        <v>1.691688044223375</v>
       </c>
       <c r="AZ10">
-        <v>0.47434652847934278</v>
+        <v>2.2916721973087348</v>
       </c>
       <c r="BA10">
-        <v>1.581392720605812</v>
+        <v>0.64483556966880728</v>
       </c>
       <c r="BB10">
-        <v>3.321236258877887</v>
+        <v>0.30703575306818942</v>
       </c>
       <c r="BC10">
-        <v>1.1675236767953161</v>
+        <v>0.87341978251009378</v>
       </c>
       <c r="BD10">
-        <v>1.998450279393913</v>
+        <v>0.51026452165285485</v>
       </c>
       <c r="BE10">
-        <v>1.468473068087772</v>
+        <v>0.69442082256901183</v>
       </c>
       <c r="BF10">
-        <v>0.82797704816992157</v>
+        <v>1.160098460321088</v>
       </c>
       <c r="BG10">
-        <v>1.597532595427448</v>
+        <v>0.63832079469345226</v>
       </c>
     </row>
     <row r="11" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2439,178 +2465,178 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.4794925496257312</v>
+        <v>0.39817051580303592</v>
       </c>
       <c r="C11">
-        <v>1.842469397768306</v>
+        <v>0.53583567174037339</v>
       </c>
       <c r="D11">
-        <v>1.731810664086572</v>
+        <v>0.62325804242580674</v>
       </c>
       <c r="E11">
-        <v>1.2446915114947159</v>
+        <v>0.79317711922747158</v>
       </c>
       <c r="F11">
-        <v>1.0331628264233359</v>
+        <v>0.95557137961692273</v>
       </c>
       <c r="G11">
-        <v>0.87768215883607603</v>
+        <v>1.1248500581617189</v>
       </c>
       <c r="H11">
-        <v>1.1827008730489721</v>
+        <v>0.83475107688821581</v>
       </c>
       <c r="I11">
-        <v>0.59719184457799379</v>
+        <v>1.6531719854813369</v>
       </c>
       <c r="J11">
-        <v>1.302749650720562</v>
+        <v>0.75782851054168643</v>
       </c>
       <c r="K11">
-        <v>1.5804990792656111</v>
+        <v>0.62465131449048517</v>
       </c>
       <c r="L11">
-        <v>0.87755531492442929</v>
+        <v>1.125012646637872</v>
       </c>
       <c r="M11">
-        <v>2.352675270460276</v>
+        <v>0.33585430501404478</v>
       </c>
       <c r="N11">
-        <v>2.1764854591404408</v>
+        <v>0.45360322682980869</v>
       </c>
       <c r="O11">
-        <v>0.66736221467027446</v>
+        <v>1.4793478050027851</v>
       </c>
       <c r="P11">
-        <v>0.66245580184590747</v>
+        <v>1.4903044469733659</v>
       </c>
       <c r="Q11">
-        <v>0.5801544812418119</v>
+        <v>1.701720592248201</v>
       </c>
       <c r="R11">
-        <v>1.9243411367160419</v>
+        <v>0.51303836340528364</v>
       </c>
       <c r="S11">
-        <v>1.749662647623671</v>
+        <v>0.56425781778854911</v>
       </c>
       <c r="T11">
-        <v>0.4800459901084827</v>
+        <v>1.995184456720412</v>
       </c>
       <c r="U11">
-        <v>1.656709083089098</v>
+        <v>0.59591683144117091</v>
       </c>
       <c r="V11">
-        <v>0.7819470156401136</v>
+        <v>1.2625674216635701</v>
       </c>
       <c r="W11">
-        <v>1.8202349630711161</v>
+        <v>0.54238098236974519</v>
       </c>
       <c r="X11">
-        <v>0.91886250825173654</v>
+        <v>1.0744380345789359</v>
       </c>
       <c r="Y11">
-        <v>0.80321217172028481</v>
+        <v>1.357946058049246</v>
       </c>
       <c r="Z11">
-        <v>1.906253599867151</v>
+        <v>0.51790634125652157</v>
       </c>
       <c r="AA11">
-        <v>4.2201265080615036</v>
+        <v>0.2339410502335294</v>
       </c>
       <c r="AB11">
-        <v>2.6760355074221129</v>
+        <v>0.36892665462623581</v>
       </c>
       <c r="AC11">
-        <v>0.73218042631434477</v>
+        <v>1.348384622058183</v>
       </c>
       <c r="AD11">
-        <v>5.448532129373743</v>
+        <v>0.18119757835175609</v>
       </c>
       <c r="AE11">
-        <v>0.48049571802659669</v>
+        <v>2.0546714369671402</v>
       </c>
       <c r="AF11">
-        <v>1.2388119258296579</v>
+        <v>0.79694165581516618</v>
       </c>
       <c r="AG11">
-        <v>2.0112326909046661</v>
+        <v>0.49087349856579299</v>
       </c>
       <c r="AH11">
-        <v>0.98408645949427953</v>
+        <v>1.003225700231279</v>
       </c>
       <c r="AI11">
-        <v>4.9520547420900938</v>
+        <v>0.19341068462647051</v>
       </c>
       <c r="AJ11">
-        <v>0.81761721856869007</v>
+        <v>1.207485367226669</v>
       </c>
       <c r="AK11">
-        <v>0.90864756973717797</v>
+        <v>1.086516775365201</v>
       </c>
       <c r="AL11">
-        <v>1.710584160977217</v>
+        <v>0.57714835080097249</v>
       </c>
       <c r="AM11">
-        <v>2.2933663807813711</v>
+        <v>0.37810986563000981</v>
       </c>
       <c r="AN11">
-        <v>0.99115680949744311</v>
+        <v>0.99606925761307719</v>
       </c>
       <c r="AO11">
-        <v>0.9742360760659734</v>
+        <v>0.98310904461984605</v>
       </c>
       <c r="AP11">
-        <v>0.67016612477759374</v>
+        <v>1.4291684741499919</v>
       </c>
       <c r="AQ11">
-        <v>0.49530479874594269</v>
+        <v>1.99323897106166</v>
       </c>
       <c r="AR11">
-        <v>1.062965638976743</v>
+        <v>0.85518138759991502</v>
       </c>
       <c r="AS11">
-        <v>1.353410454949348</v>
+        <v>0.72946150504741858</v>
       </c>
       <c r="AT11">
-        <v>1.4610689828896679</v>
+        <v>0.67571130383021949</v>
       </c>
       <c r="AU11">
-        <v>3.3503598260119021</v>
+        <v>0.28587386063409698</v>
       </c>
       <c r="AV11">
-        <v>7.1651994494313902</v>
+        <v>0.1377855333102577</v>
       </c>
       <c r="AW11">
-        <v>1.1836539205320189</v>
+        <v>0.80148884679288057</v>
       </c>
       <c r="AX11">
-        <v>2.1800407265837101</v>
+        <v>0.45286347882196598</v>
       </c>
       <c r="AY11">
-        <v>2.5146732463156098</v>
+        <v>0.38087664048547931</v>
       </c>
       <c r="AZ11">
-        <v>0.43775669345426937</v>
+        <v>2.26606887513997</v>
       </c>
       <c r="BA11">
-        <v>0.72564893721751667</v>
+        <v>1.360521288985677</v>
       </c>
       <c r="BB11">
-        <v>3.3083929054777022</v>
+        <v>0.29841099761145667</v>
       </c>
       <c r="BC11">
-        <v>0.68428396219995169</v>
+        <v>1.442764819798281</v>
       </c>
       <c r="BD11">
-        <v>1.1862440437581201</v>
+        <v>0.83225777411411772</v>
       </c>
       <c r="BE11">
-        <v>0.42634769053955229</v>
+        <v>2.315623725239051</v>
       </c>
       <c r="BF11">
-        <v>3.1207350739590498</v>
+        <v>0.29009965577655178</v>
       </c>
       <c r="BG11">
-        <v>1.5834930280336259</v>
+        <v>0.62347027106285346</v>
       </c>
     </row>
   </sheetData>
